--- a/doc/04_その他/04_テスト仕様書_テスト結果報告書_B5.xlsx
+++ b/doc/04_その他/04_テスト仕様書_テスト結果報告書_B5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27823"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B5\doc\04_その他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/miyashita-ryusuke-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C464BEC-929C-4F87-9DD0-5C1AFA53CD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{ED698808-386B-441A-82D4-751D34091706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4104B1-74AE-4357-BEFB-8543BF41BE7A}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="4635" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="280">
   <si>
     <t>テストID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象画面・機能</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -118,15 +131,2137 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象画面・機能</t>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>入力値</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>IDを空、パスワードを有効なものにしてログインを実行。</t>
+  </si>
+  <si>
+    <t>入力値エラー</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>木村</t>
     <rPh sb="0" eb="2">
-      <t>タイショウ</t>
+      <t>キムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを有効なもの、パスワードを空にしてログインを実行。</t>
+  </si>
+  <si>
+    <t>IDとパスワードを空にしてログインを実行。</t>
+  </si>
+  <si>
+    <t>IDとパスワードをそれぞれ有効なものにしてログインを実行。</t>
+  </si>
+  <si>
+    <t>ホーム画面に遷移する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号</t>
+  </si>
+  <si>
+    <t>IDにシングルクォーテーションを入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>IDに;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>IDに&lt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>IDに&gt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードにシングルクォーテーションを入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードに;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードに&lt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードに&gt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桃田</t>
+    <rPh sb="0" eb="2">
+      <t>モモタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功画面に遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示</t>
+  </si>
+  <si>
+    <t>ログインし、一覧検索画面に遷移する。</t>
+  </si>
+  <si>
+    <t>初期表示時、登録データを表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲村</t>
+    <rPh sb="0" eb="2">
+      <t>イナムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン</t>
+  </si>
+  <si>
+    <t>ログインしていない状態</t>
+  </si>
+  <si>
+    <t>非ログインの状態で、直接URLを指定して画面を開く。</t>
+  </si>
+  <si>
+    <t>ログインページに遷移する。</t>
+  </si>
+  <si>
+    <t>更新項目</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームとひとことを空にして更新を実行。</t>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新される</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>ニックネームにシングルクォーテーションを入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームに;を入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームに&lt;を入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームに&gt;を入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとことにシングルクォーテーションを入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功</t>
+  </si>
+  <si>
+    <t>ひとことに;を入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとことに&lt;を入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひとことに&gt;を入力してログインを実行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補助画面</t>
+    <rPh sb="0" eb="4">
+      <t>ホジョガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID1の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役1が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立直を行えないため表示されない</t>
+  </si>
+  <si>
+    <t>米川</t>
+    <rPh sb="0" eb="2">
+      <t>ヨネカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立直</t>
+  </si>
+  <si>
+    <t>ID2の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役2が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一発</t>
+  </si>
+  <si>
+    <t>ID3の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役3が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面前清模和</t>
+  </si>
+  <si>
+    <t>ID4の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役4が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平和</t>
+  </si>
+  <si>
+    <t>ID5の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役5が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンヤオ</t>
+  </si>
+  <si>
+    <t>ID6の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役6が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一盃口</t>
+  </si>
+  <si>
+    <t>ID7の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役7が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>ID8の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役8が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>發</t>
+  </si>
+  <si>
+    <t>ID9の役が成立</t>
+    <rPh sb="4" eb="5">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役9が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>ID10の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役10が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場風</t>
+  </si>
+  <si>
+    <t>ID11の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役11が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自風</t>
+  </si>
+  <si>
+    <t>ID12の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役12が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンを行えないため</t>
+  </si>
+  <si>
+    <t>嶺上開花</t>
+  </si>
+  <si>
+    <t>ID13の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役13が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>槓子</t>
+  </si>
+  <si>
+    <t>ID14の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役14が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ内では場の状況を把握できないため表示されない</t>
+  </si>
+  <si>
+    <t>海底撈月</t>
+  </si>
+  <si>
+    <t>ID15の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役15が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河底撈月</t>
+  </si>
+  <si>
+    <t>ID16の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役16が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の立直を反映できないため表示されない</t>
+  </si>
+  <si>
+    <t>ダブル立直</t>
+  </si>
+  <si>
+    <t>ID17の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役17が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金帯</t>
+  </si>
+  <si>
+    <t>ID18の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役18が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混老頭</t>
+  </si>
+  <si>
+    <t>ID19の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役19が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三色同順</t>
+  </si>
+  <si>
+    <t>ID20の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役20が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一気通貫</t>
+  </si>
+  <si>
+    <t>ID21の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役21が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対々和</t>
+  </si>
+  <si>
+    <t>ID22の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役22が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三色同刻</t>
+  </si>
+  <si>
+    <t>ID23の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役23が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポンを行えないため表示されない</t>
+  </si>
+  <si>
+    <t>三暗刻</t>
+  </si>
+  <si>
+    <t>ID24の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役24が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンを行えないため表示されない</t>
+  </si>
+  <si>
+    <t>三槓子</t>
+  </si>
+  <si>
+    <t>ID25の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役25が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>七対子</t>
+  </si>
+  <si>
+    <t>ID26の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役26が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小三元</t>
+  </si>
+  <si>
+    <t>ID27の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役27が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純金帯幺</t>
+  </si>
+  <si>
+    <t>ID28の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役28が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混一色</t>
+  </si>
+  <si>
+    <t>ID29の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役29が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平和と一緒に出てしまう</t>
+  </si>
+  <si>
+    <t>二盃口</t>
+  </si>
+  <si>
+    <t>ID30の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役30が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清一色</t>
+  </si>
+  <si>
+    <t>ID31の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役31が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天和</t>
+  </si>
+  <si>
+    <t>ID32の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役32が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地和</t>
+  </si>
+  <si>
+    <t>ID33の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役33が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小四喜と表示される</t>
+  </si>
+  <si>
+    <t>大三元</t>
+  </si>
+  <si>
+    <t>ID34の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役34が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清老頭と表示されてしまう</t>
+  </si>
+  <si>
+    <t>ID35の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役35が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四槓子と表示されてしまう</t>
+  </si>
+  <si>
+    <t>清老頭</t>
+  </si>
+  <si>
+    <t>ID36の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役36が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四槓子</t>
+  </si>
+  <si>
+    <t>ID37の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役37が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字一色</t>
+  </si>
+  <si>
+    <t>ID38の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役38が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混一色、天和と表示されてしまう</t>
+  </si>
+  <si>
+    <t>緑一色</t>
+  </si>
+  <si>
+    <t>ID39の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役39が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国士無双</t>
+  </si>
+  <si>
+    <t>ID40の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役40が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されず他の役が表示されてしまう</t>
+  </si>
+  <si>
+    <t>九蓮宝燈</t>
+  </si>
+  <si>
+    <t>ID41の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役41が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されない</t>
+  </si>
+  <si>
+    <t>四暗刻</t>
+  </si>
+  <si>
+    <t>ID42の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役42が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四暗刻と表示されてしまう</t>
+  </si>
+  <si>
+    <t>大四喜</t>
+  </si>
+  <si>
+    <t>ID43の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役43が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国士無双と表示されてしまう</t>
+  </si>
+  <si>
+    <t>国士無双十三面待ち</t>
+  </si>
+  <si>
+    <t>ID44の役が成立</t>
+    <rPh sb="5" eb="6">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役44が出力</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>九連宝燈と表示されてしまう</t>
+  </si>
+  <si>
+    <t>九蓮宝燈九面待ち</t>
+  </si>
+  <si>
+    <t>親、役満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクマン</t>
+    </rPh>
     <rPh sb="5" eb="7">
-      <t>キノウ</t>
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>48000点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮下</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、三倍満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36000点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、倍満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24000点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、跳満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハネマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16000点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、満貫が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マンガン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12000点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、4翻30符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11600点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、4翻25符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9600点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11600点が表示される</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、3翻30符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5800点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、3翻25符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4800点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4800点が表示される</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、2翻40符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3900点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、2翻30符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2900点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親、2翻25符が成立</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2400点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2900点が表示される</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、役満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクマン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32000点が出力</t>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、三倍満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、倍満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、跳満が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハネマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、満貫が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マンガン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8000点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、4翻30符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7700点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、4翻25符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6400点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7700点が表示される</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、3翻30符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、3翻25符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3200点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3900点が表示される</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、2翻40符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2600点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、2翻30符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子、2翻25符が成立</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1600点が出力</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000点が表示される</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1翻の役が成立</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1翻が出力</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1翻の役がふたつ成立</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2翻が出力</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子なし,頭役なし,待ち両面</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リャンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30符が出力</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子中張牌のみ,頭役なし,待ち両面</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40符が出力</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子幺九牌のみ,頭役なし</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子なし,頭役牌,待ち両面</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チートイツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25符が出力</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子幺九牌のみ,頭役牌,待ち両面</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50符が出力</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子幺九牌三つ,頭役牌,待ち両面</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60符が出力</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子なし,頭役なし,ペンチャン待ち</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子なし,頭役なし,カンチャン待ち</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロン上がり,刻子なし,頭役なし,単騎待ち</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コーツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,7 +2270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +2285,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Yu Gothic"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +2300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,13 +2323,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -469,19 +2642,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.375" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.25" customWidth="1"/>
   </cols>
@@ -491,37 +2664,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -529,33 +2702,65 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B35" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13">
@@ -565,14 +2770,28 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:13">
@@ -582,14 +2801,28 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:13">
@@ -598,15 +2831,31 @@
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:13">
@@ -616,14 +2865,28 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:13">
@@ -633,14 +2896,28 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:13">
@@ -650,14 +2927,28 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:13">
@@ -667,14 +2958,28 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:13">
@@ -684,14 +2989,28 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:13">
@@ -701,14 +3020,28 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:13">
@@ -718,14 +3051,28 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45470</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13">
@@ -733,15 +3080,31 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="3">
+        <v>45470</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
@@ -752,13 +3115,25 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="3">
+        <v>45470</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
@@ -769,13 +3144,25 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="3">
+        <v>45470</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
@@ -786,13 +3173,25 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="3">
+        <v>45470</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
@@ -802,14 +3201,28 @@
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="3">
+        <v>45470</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -820,13 +3233,25 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="3">
+        <v>45470</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
@@ -837,13 +3262,25 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="3">
+        <v>45470</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
@@ -854,13 +3291,25 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="3">
+        <v>45470</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
@@ -871,13 +3320,25 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="3">
+        <v>45470</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -888,13 +3349,25 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="3">
+        <v>45470</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -905,13 +3378,25 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="3">
+        <v>45470</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
@@ -922,13 +3407,25 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="3">
+        <v>45470</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -937,14 +3434,28 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -955,13 +3466,25 @@
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -972,13 +3495,27 @@
         <v>27</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -990,12 +3527,24 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1007,12 +3556,24 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1024,12 +3585,24 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1041,12 +3614,24 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1058,12 +3643,22 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1075,15 +3670,3084 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B131" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="1">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="1">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" s="1">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="B114" s="1">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="B115" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="B116" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" s="1">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" s="1">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" s="1">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="1">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="1">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" s="1">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="1">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" s="1">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129" s="1">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="2:13">
+      <c r="B131" s="1">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="1">
+        <f t="shared" ref="B132:B158" si="2">ROW()-2</f>
+        <v>130</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" s="1">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="1">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="2:13">
+      <c r="B135" s="1">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136" s="1">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="2:13">
+      <c r="B137" s="1">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="1">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" s="1">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="1">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" s="1">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="1">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="1">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="1">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="1">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="1">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="1">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="1">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="1">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="1">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="1">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="1">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="1">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="1">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
